--- a/Data/Comparing MPQ sizes and metric changes.xlsx
+++ b/Data/Comparing MPQ sizes and metric changes.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Desktop/GitHub/2019MPQ/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Desktop/GitHub/Bruce_MPQ_Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4044959F-0C17-134D-84A0-388673B578BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C560FBD4-2804-6047-870F-2373292F6294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{F3A4A8A6-98D9-3F48-8546-AC6A8561833A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F3A4A8A6-98D9-3F48-8546-AC6A8561833A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MPQ Metric Comparissons" sheetId="4" r:id="rId1"/>
+    <sheet name="DEM Scaling Issues" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
   <si>
     <t>Site</t>
   </si>
@@ -75,9 +76,6 @@
     <t>JM</t>
   </si>
   <si>
-    <t>M2</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
@@ -87,13 +85,28 @@
     <t>abs_curv</t>
   </si>
   <si>
-    <t>VH3</t>
+    <t>3D_Area</t>
   </si>
   <si>
     <t>Before</t>
   </si>
   <si>
-    <t>Very High</t>
+    <t>VL1</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>MPQ</t>
+  </si>
+  <si>
+    <t>Cell Sizes of DEM in 2015</t>
+  </si>
+  <si>
+    <t>Cell Sizes of DEM in 2017</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -117,7 +130,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,12 +157,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,430 +494,929 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7F17E5-AC8A-ED48-B0E8-0A13417A7B42}">
-  <dimension ref="A1:K22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D564A68-4C63-1041-99F2-A3F858EAACB8}">
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" customWidth="1"/>
+    <col min="1" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>2017</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>17.463297000000001</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
+        <v>46.955120000000001</v>
+      </c>
+      <c r="G2" s="5">
         <v>1.7506989660000001</v>
       </c>
-      <c r="G2">
+      <c r="H2" s="5">
         <v>5.0039602000000002E-2</v>
       </c>
-      <c r="H2">
+      <c r="I2" s="5">
         <v>2.7886428460000001</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5">
+        <v>2015</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>19.810732999999999</v>
+      </c>
+      <c r="F3" s="5">
+        <v>35.104999999999997</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1.9706570000000001</v>
+      </c>
+      <c r="H3" s="5">
+        <v>6.0079718999999997E-2</v>
+      </c>
+      <c r="I3" s="5">
+        <v>17.830717310000001</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2015</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>14.369289999999999</v>
+      </c>
+      <c r="F4" s="5">
+        <v>29.550687</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2.0565168489999999</v>
+      </c>
+      <c r="H4" s="5">
+        <v>8.4957540999999998E-2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>13.00866267</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5">
+        <v>18.375001000000001</v>
+      </c>
+      <c r="F5" s="8">
+        <v>18.375001000000001</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1.7372432799999999</v>
+      </c>
+      <c r="H5" s="5">
+        <v>5.0044985809999998E-2</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1.81E-6</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2015</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8">
+        <v>17.933638999999999</v>
+      </c>
+      <c r="F6" s="8">
+        <v>20.062719000000001</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1.767464669</v>
+      </c>
+      <c r="H6" s="8">
+        <v>6.0238317919999999E-2</v>
+      </c>
+      <c r="I6" s="10">
+        <v>2.12E-6</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2015</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>15.573763</v>
+      </c>
+      <c r="F7" s="8">
+        <v>15.148078</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2.078112022</v>
+      </c>
+      <c r="H7" s="8">
+        <v>8.5429347259999996E-2</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1.72E-6</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2015</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>21.481819999999999</v>
+      </c>
+      <c r="F8" s="5">
+        <v>30.572976000000001</v>
+      </c>
+      <c r="G8" s="5">
+        <v>2.4806319999999999</v>
+      </c>
+      <c r="H8" s="5">
+        <v>8.6517695000000006E-2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>8.5127190329999998</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>17.693563000000001</v>
+      </c>
+      <c r="F9" s="5">
+        <v>29.342244000000001</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1.6583569970000001</v>
+      </c>
+      <c r="H9" s="5">
+        <v>5.5678917000000001E-2</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.37269385300000002</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>12.607123</v>
+      </c>
+      <c r="F10" s="5">
+        <v>25.007252000000001</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1.983581187</v>
+      </c>
+      <c r="H10" s="5">
+        <v>6.1910845999999999E-2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>54.714537479999997</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <v>2015</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+      <c r="E11" s="8">
+        <v>19.703287</v>
+      </c>
+      <c r="F11" s="8">
+        <v>23.501003000000001</v>
+      </c>
+      <c r="G11" s="8">
+        <v>2.1562693300000002</v>
+      </c>
+      <c r="H11" s="8">
+        <v>8.4818247190000001E-2</v>
+      </c>
+      <c r="I11" s="10">
+        <v>2.74E-6</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="8">
+        <v>16.951435</v>
+      </c>
+      <c r="F12" s="8">
+        <v>17.921130999999999</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1.6591457869999999</v>
+      </c>
+      <c r="H12" s="8">
+        <v>5.5361324939999998E-2</v>
+      </c>
+      <c r="I12" s="10">
+        <v>1.6999999999999999E-7</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2017</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>14.596572</v>
+      </c>
+      <c r="F13" s="8">
+        <v>13.296004999999999</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1.986999704</v>
+      </c>
+      <c r="H13" s="8">
+        <v>6.238559934E-2</v>
+      </c>
+      <c r="I13" s="10">
+        <v>-1.3999999999999999E-6</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B13BD5-7946-C945-9F5E-AF204E036B77}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView zoomScale="101" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="4" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.4893300000000001E-3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1.27056E-3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.1124799999999999E-3</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.1649500000000001E-3</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.1366099999999999E-3</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>2017</v>
-      </c>
-      <c r="D3">
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1.75117E-3</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>14.841241</v>
-      </c>
-      <c r="F3">
-        <v>1.694455807</v>
-      </c>
-      <c r="G3">
-        <v>5.1567694999999997E-2</v>
-      </c>
-      <c r="H3">
-        <v>15.181729219999999</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>2017</v>
-      </c>
-      <c r="D4">
+      <c r="C18" s="3">
+        <v>1.4449700000000001E-3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1.23683E-3</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.6436700000000001E-3</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>27</v>
+      </c>
+      <c r="B21" s="2">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>18.375001000000001</v>
-      </c>
-      <c r="F4">
-        <v>1.7372432799999999</v>
-      </c>
-      <c r="G4">
-        <v>5.0044985809999998E-2</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1.81E-6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>2017</v>
-      </c>
-      <c r="D5">
+      <c r="C21" s="3">
+        <v>1.8359100000000001E-3</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>27</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1.97701E-3</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>30</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1.40829E-3</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>30</v>
+      </c>
+      <c r="B24" s="2">
         <v>2</v>
       </c>
-      <c r="E5">
-        <v>14.4032</v>
-      </c>
-      <c r="F5">
-        <v>1.695971173</v>
-      </c>
-      <c r="G5">
-        <v>5.1775211510000002E-2</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1.3599999999999999E-6</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="C24" s="3">
+        <v>1.71952E-3</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6">
-        <v>2015</v>
-      </c>
-      <c r="D6">
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1.6561799999999999E-3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>32</v>
+      </c>
+      <c r="B26" s="2">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>30</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>2015</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>18.511713</v>
-      </c>
-      <c r="F7">
-        <v>2.0468730000000002</v>
-      </c>
-      <c r="G7">
-        <v>7.4219952000000006E-2</v>
-      </c>
-      <c r="H7">
-        <v>21.801598819999999</v>
-      </c>
-      <c r="I7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>2017</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="I8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9">
-        <v>2017</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>17.463297000000001</v>
-      </c>
-      <c r="F9">
-        <v>1.7506989660000001</v>
-      </c>
-      <c r="G9">
-        <v>5.0039602000000002E-2</v>
-      </c>
-      <c r="H9">
-        <v>2.7886428460000001</v>
-      </c>
-      <c r="I9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>2015</v>
-      </c>
-      <c r="D10">
+      <c r="C26" s="3">
+        <v>1.04773E-3</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>32</v>
+      </c>
+      <c r="B27" s="2">
         <v>2</v>
       </c>
-      <c r="I10" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>2015</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>2015</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>21.481819999999999</v>
-      </c>
-      <c r="F12">
-        <v>2.4806319999999999</v>
-      </c>
-      <c r="G12">
-        <v>8.6517695000000006E-2</v>
-      </c>
-      <c r="H12">
-        <v>8.5127190329999998</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>2015</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>19.898775000000001</v>
-      </c>
-      <c r="F13">
-        <v>2.2306300000000001</v>
-      </c>
-      <c r="G13">
-        <v>7.2920208E-2</v>
-      </c>
-      <c r="H13">
-        <v>16.515139340000001</v>
-      </c>
-      <c r="I13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C27" s="3">
+        <v>1.05247E-3</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1.05575E-3</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Comparing MPQ sizes and metric changes.xlsx
+++ b/Data/Comparing MPQ sizes and metric changes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Desktop/GitHub/Bruce_MPQ_Analysis/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Library/Containers/com.microsoft.Excel/Data/Desktop/GitHub/Bruce_MPQ_Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C560FBD4-2804-6047-870F-2373292F6294}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F215CFD-1DC5-3B4C-B00B-F9826DBF59C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F3A4A8A6-98D9-3F48-8546-AC6A8561833A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="MPQ Metric Comparissons" sheetId="4" r:id="rId1"/>
     <sheet name="DEM Scaling Issues" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -113,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +136,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -157,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -177,10 +183,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D564A68-4C63-1041-99F2-A3F858EAACB8}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -684,7 +687,7 @@
         <v>5.0044985809999998E-2</v>
       </c>
       <c r="I5" s="9">
-        <v>1.81E-6</v>
+        <v>3.3065552899999999</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>11</v>
@@ -721,8 +724,8 @@
       <c r="H6" s="8">
         <v>6.0238317919999999E-2</v>
       </c>
-      <c r="I6" s="10">
-        <v>2.12E-6</v>
+      <c r="I6" s="9">
+        <v>5.3897394939999996</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>18</v>
@@ -759,8 +762,8 @@
       <c r="H7" s="8">
         <v>8.5429347259999996E-2</v>
       </c>
-      <c r="I7" s="10">
-        <v>1.72E-6</v>
+      <c r="I7" s="9">
+        <v>16.494041790000001</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>18</v>
@@ -911,8 +914,8 @@
       <c r="H11" s="8">
         <v>8.4818247190000001E-2</v>
       </c>
-      <c r="I11" s="10">
-        <v>2.74E-6</v>
+      <c r="I11" s="9">
+        <v>3.951547315</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>18</v>
@@ -949,8 +952,8 @@
       <c r="H12" s="8">
         <v>5.5361324939999998E-2</v>
       </c>
-      <c r="I12" s="10">
-        <v>1.6999999999999999E-7</v>
+      <c r="I12" s="9">
+        <v>2.658635834</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>11</v>
@@ -987,8 +990,8 @@
       <c r="H13" s="8">
         <v>6.238559934E-2</v>
       </c>
-      <c r="I13" s="10">
-        <v>-1.3999999999999999E-6</v>
+      <c r="I13" s="9">
+        <v>11.362216119999999</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>11</v>

--- a/Data/Comparing MPQ sizes and metric changes.xlsx
+++ b/Data/Comparing MPQ sizes and metric changes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Library/Containers/com.microsoft.Excel/Data/Desktop/GitHub/Bruce_MPQ_Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F215CFD-1DC5-3B4C-B00B-F9826DBF59C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B76F8A-9DA1-344F-897E-8E0A96456814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F3A4A8A6-98D9-3F48-8546-AC6A8561833A}"/>
   </bookViews>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D564A68-4C63-1041-99F2-A3F858EAACB8}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -953,7 +953,7 @@
         <v>5.5361324939999998E-2</v>
       </c>
       <c r="I12" s="9">
-        <v>2.658635834</v>
+        <v>0.64262741000000001</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>11</v>
@@ -991,7 +991,7 @@
         <v>6.238559934E-2</v>
       </c>
       <c r="I13" s="9">
-        <v>11.362216119999999</v>
+        <v>51.941000000000003</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>11</v>
